--- a/Dashboards/dashboards-I-parla-sample.xlsx
+++ b/Dashboards/dashboards-I-parla-sample.xlsx
@@ -37,7 +37,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId14"/>
+    <pivotCache cacheId="0" r:id="rId14"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -269,7 +269,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -589,9 +589,6 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -611,9 +608,6 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -636,25 +630,33 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -664,8 +666,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1176,13 +1176,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0.00%">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>0.48484848484848486</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00%">
-                  <c:v>0.4244444444444444</c:v>
+                  <c:v>0.49515151515151512</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -1630,13 +1630,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0.00%">
-                  <c:v>0.23207776427703525</c:v>
+                  <c:v>6.4398541919805583E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00%">
-                  <c:v>0.74792223572296468</c:v>
+                  <c:v>0.91560145808019444</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -1740,7 +1740,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1854,7 +1853,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1982,73 +1980,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>58</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>116</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>51</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>48</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>105</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>91</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>37</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>90</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>107</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2065,11 +2063,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="767937248"/>
-        <c:axId val="767928624"/>
+        <c:axId val="539324256"/>
+        <c:axId val="539324648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="767937248"/>
+        <c:axId val="539324256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2116,14 +2114,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="767928624"/>
+        <c:crossAx val="539324648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="767928624"/>
+        <c:axId val="539324648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2133,7 +2131,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="767937248"/>
+        <c:crossAx val="539324256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2311,7 +2309,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2389,11 +2386,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="769876712"/>
-        <c:axId val="769871224"/>
+        <c:axId val="539327000"/>
+        <c:axId val="539325432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="769876712"/>
+        <c:axId val="539327000"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2403,7 +2400,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="769871224"/>
+        <c:crossAx val="539325432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2411,7 +2408,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="769871224"/>
+        <c:axId val="539325432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2421,7 +2418,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="769876712"/>
+        <c:crossAx val="539327000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2498,11 +2495,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="769124656"/>
-        <c:axId val="769123480"/>
+        <c:axId val="539327784"/>
+        <c:axId val="541307024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="769124656"/>
+        <c:axId val="539327784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2544,7 +2541,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="769123480"/>
+        <c:crossAx val="541307024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2552,7 +2549,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="769123480"/>
+        <c:axId val="541307024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2602,7 +2599,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="769124656"/>
+        <c:crossAx val="539327784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2616,7 +2613,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3085,13 +3081,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0.00%">
-                  <c:v>0.30733333333333335</c:v>
+                  <c:v>0.28933333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00%">
-                  <c:v>0.67266666666666663</c:v>
+                  <c:v>0.69066666666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -3539,13 +3535,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0.00%">
-                  <c:v>0.19666666666666666</c:v>
+                  <c:v>0.75666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00%">
-                  <c:v>0.78333333333333333</c:v>
+                  <c:v>0.22333333333333327</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -3707,13 +3703,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0.00%">
-                  <c:v>0.30733333333333335</c:v>
+                  <c:v>0.28933333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00%">
-                  <c:v>0.67266666666666663</c:v>
+                  <c:v>0.69066666666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -3872,7 +3868,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4000,73 +3995,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>58</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>116</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>51</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>48</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>105</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>91</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>37</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>90</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>107</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4083,11 +4078,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="767827144"/>
-        <c:axId val="767817736"/>
+        <c:axId val="541309768"/>
+        <c:axId val="541306632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="767827144"/>
+        <c:axId val="541309768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4130,14 +4125,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="767817736"/>
+        <c:crossAx val="541306632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="767817736"/>
+        <c:axId val="541306632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4147,7 +4142,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="767827144"/>
+        <c:crossAx val="541309768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4234,7 +4229,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4386,7 +4380,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4464,11 +4457,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="769081928"/>
-        <c:axId val="769084672"/>
+        <c:axId val="541308984"/>
+        <c:axId val="541309376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="769081928"/>
+        <c:axId val="541308984"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4478,7 +4471,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="769084672"/>
+        <c:crossAx val="541309376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4486,7 +4479,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="769084672"/>
+        <c:axId val="541309376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4496,7 +4489,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="769081928"/>
+        <c:crossAx val="541308984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4915,13 +4908,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.60411175540326834</c:v>
+                  <c:v>5.2083333333333336E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38588824459673166</c:v>
+                  <c:v>0.93791666666666662</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -5052,19 +5045,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1897</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2648</c:v>
+                  <c:v>467.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3509</c:v>
+                  <c:v>470.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3693</c:v>
+                  <c:v>477.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3696</c:v>
+                  <c:v>478.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5140,7 +5133,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5189,19 +5181,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3794</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2292</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>570</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>202</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0">
-                  <c:v>196</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5217,11 +5209,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="769177184"/>
-        <c:axId val="769176008"/>
+        <c:axId val="541311336"/>
+        <c:axId val="541313688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="769177184"/>
+        <c:axId val="541311336"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -5231,7 +5223,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="769176008"/>
+        <c:crossAx val="541313688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5239,7 +5231,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="769176008"/>
+        <c:axId val="541313688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5249,7 +5241,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="769177184"/>
+        <c:crossAx val="541311336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5666,13 +5658,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.60411175540326834</c:v>
+                  <c:v>5.2083333333333336E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38588824459673166</c:v>
+                  <c:v>0.93791666666666662</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -5803,19 +5795,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1897</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2648</c:v>
+                  <c:v>467.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3509</c:v>
+                  <c:v>470.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3693</c:v>
+                  <c:v>477.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3696</c:v>
+                  <c:v>478.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5891,7 +5883,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5940,19 +5931,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3794</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2292</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>570</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>202</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0">
-                  <c:v>196</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5968,11 +5959,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="768987928"/>
-        <c:axId val="768984400"/>
+        <c:axId val="541312512"/>
+        <c:axId val="542864600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="768987928"/>
+        <c:axId val="541312512"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -5982,7 +5973,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="768984400"/>
+        <c:crossAx val="542864600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5990,7 +5981,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="768984400"/>
+        <c:axId val="542864600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6000,7 +5991,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="768987928"/>
+        <c:crossAx val="541312512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6145,9 +6136,7 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -6204,7 +6193,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -6227,7 +6215,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3794</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6276,9 +6264,7 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -6337,7 +6323,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -6360,7 +6345,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2292</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6409,9 +6394,7 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -6468,7 +6451,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -6491,7 +6473,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>570</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6540,9 +6522,7 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -6599,7 +6579,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -6622,7 +6601,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>202</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6671,9 +6650,7 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -6730,7 +6707,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -6753,7 +6729,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>196</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6769,12 +6745,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cone"/>
-        <c:axId val="769986472"/>
-        <c:axId val="769980200"/>
+        <c:axId val="542865776"/>
+        <c:axId val="542863032"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="769986472"/>
+        <c:axId val="542865776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6784,7 +6760,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="769980200"/>
+        <c:crossAx val="542863032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6792,7 +6768,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="769980200"/>
+        <c:axId val="542863032"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -6802,7 +6778,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="769986472"/>
+        <c:crossAx val="542865776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7506,13 +7482,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.60411175540326834</c:v>
+                  <c:v>5.2083333333333336E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38588824459673166</c:v>
+                  <c:v>0.93791666666666662</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -7643,19 +7619,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1897</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2648</c:v>
+                  <c:v>467.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3509</c:v>
+                  <c:v>470.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3693</c:v>
+                  <c:v>477.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3696</c:v>
+                  <c:v>478.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7780,19 +7756,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3794</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2292</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>570</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>202</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0">
-                  <c:v>196</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7808,11 +7784,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="1089810328"/>
-        <c:axId val="1089810720"/>
+        <c:axId val="542867344"/>
+        <c:axId val="542864992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1089810328"/>
+        <c:axId val="542867344"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -7822,7 +7798,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1089810720"/>
+        <c:crossAx val="542864992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7830,7 +7806,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1089810720"/>
+        <c:axId val="542864992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7840,7 +7816,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1089810328"/>
+        <c:crossAx val="542867344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8066,7 +8042,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3794</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8198,7 +8174,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2292</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8328,7 +8304,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>570</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8458,7 +8434,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>202</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8588,7 +8564,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>196</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8604,12 +8580,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cone"/>
-        <c:axId val="769162288"/>
-        <c:axId val="769168560"/>
+        <c:axId val="542865384"/>
+        <c:axId val="542867736"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="769162288"/>
+        <c:axId val="542865384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8619,7 +8595,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="769168560"/>
+        <c:crossAx val="542867736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8627,7 +8603,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="769168560"/>
+        <c:axId val="542867736"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -8637,7 +8613,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="769162288"/>
+        <c:crossAx val="542865384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8782,13 +8758,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0.00%">
-                  <c:v>0.19666666666666666</c:v>
+                  <c:v>0.75666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00%">
-                  <c:v>0.78333333333333333</c:v>
+                  <c:v>0.22333333333333327</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -9236,13 +9212,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0.00%">
-                  <c:v>0.44500000000000001</c:v>
+                  <c:v>0.42499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00%">
-                  <c:v>0.53499999999999992</c:v>
+                  <c:v>0.55499999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -9690,13 +9666,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="0.00%">
-                  <c:v>0.85897435897435892</c:v>
+                  <c:v>0.26923076923076922</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00%">
-                  <c:v>0.12102564102564106</c:v>
+                  <c:v>0.71076923076923082</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -27766,11 +27742,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$A$25" fmlaRange="$B$2:$B$10" noThreeD="1" sel="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$A$25" fmlaRange="$B$2:$B$10" noThreeD="1" sel="5" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="Plan4!$A$25" fmlaRange="RANGE_BASES" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="Plan4!$A$25" fmlaRange="RANGE_BASES" noThreeD="1" sel="5" val="0"/>
 </file>
 
 <file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29949,7 +29925,7 @@
         <xdr:cNvPr id="2" name="Diagrama 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{801B9C39-396E-4454-9B20-BB9E9339328B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{801B9C39-396E-4454-9B20-BB9E9339328B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29990,7 +29966,7 @@
         <xdr:cNvPr id="2" name="Retângulo 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F4EADC2-1F77-4BA4-8B00-63FF214868E4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F4EADC2-1F77-4BA4-8B00-63FF214868E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30063,7 +30039,7 @@
         <xdr:cNvPr id="3" name="Retângulo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2B71F78-6802-4172-8401-1B36E5F50CE0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2B71F78-6802-4172-8401-1B36E5F50CE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30131,7 +30107,7 @@
         <xdr:cNvPr id="6" name="Retângulo 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9F450E2-BD5F-4EDD-9B55-ABAAFE5CC4CF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9F450E2-BD5F-4EDD-9B55-ABAAFE5CC4CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30199,7 +30175,7 @@
         <xdr:cNvPr id="7" name="Retângulo 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AAB12E9B-BB83-44FD-B2D4-A011096F2AC4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAB12E9B-BB83-44FD-B2D4-A011096F2AC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30268,7 +30244,7 @@
         <xdr:cNvPr id="11" name="Retângulo 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55A835A9-2A53-4618-82B3-4408F03D818A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55A835A9-2A53-4618-82B3-4408F03D818A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30338,7 +30314,7 @@
         <xdr:cNvPr id="13" name="Retângulo 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D711E9EF-B9F2-483B-9DDA-0FEBDA40C120}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D711E9EF-B9F2-483B-9DDA-0FEBDA40C120}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30408,7 +30384,7 @@
         <xdr:cNvPr id="15" name="Retângulo 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6FC6119A-E346-48A5-B1C9-F2D2C3912471}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FC6119A-E346-48A5-B1C9-F2D2C3912471}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30493,7 +30469,7 @@
         <xdr:cNvPr id="16" name="Retângulo 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2DA1A349-4733-4E8B-BA22-CE5946B90232}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA1A349-4733-4E8B-BA22-CE5946B90232}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30765,7 +30741,8 @@
                 <a:latin typeface="Calibri"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
-              <a:t>30,73%</a:t>
+              <a:pPr algn="ctr"/>
+              <a:t>28,93%</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="1600" b="1">
               <a:solidFill>
@@ -31076,7 +31053,8 @@
                 <a:ea typeface="Segoe UI Black" panose="020B0A02040204020203" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
-              <a:t>19,67%</a:t>
+              <a:pPr algn="ctr"/>
+              <a:t>75,67%</a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -31143,7 +31121,8 @@
                 <a:ea typeface="Segoe UI Black" panose="020B0A02040204020203" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
-              <a:t>Base Trabalhada [A]</a:t>
+              <a:pPr algn="ctr"/>
+              <a:t> </a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="1100">
               <a:solidFill>
@@ -31374,7 +31353,8 @@
                 <a:latin typeface="Calibri"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
-              <a:t>78,00%</a:t>
+              <a:pPr algn="ctr"/>
+              <a:t> </a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -31437,7 +31417,8 @@
                 <a:ea typeface="Segoe UI Black" panose="020B0A02040204020203" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
-              <a:t>BASE TRABALHADA [MN]</a:t>
+              <a:pPr algn="ctr"/>
+              <a:t> </a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="1100">
               <a:solidFill>
@@ -31668,7 +31649,8 @@
                 <a:latin typeface="Calibri"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
-              <a:t>33,33%</a:t>
+              <a:pPr algn="ctr"/>
+              <a:t> </a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -31731,7 +31713,8 @@
                 <a:ea typeface="Segoe UI Black" panose="020B0A02040204020203" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
-              <a:t>BASE TRABALHADA [C]</a:t>
+              <a:pPr algn="ctr"/>
+              <a:t> </a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="1100">
               <a:solidFill>
@@ -31962,7 +31945,8 @@
                 <a:latin typeface="Calibri"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
-              <a:t>38,38%</a:t>
+              <a:pPr algn="ctr"/>
+              <a:t> </a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -32025,7 +32009,8 @@
                 <a:ea typeface="Segoe UI Black" panose="020B0A02040204020203" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
-              <a:t>Base Trabalhada [EF]</a:t>
+              <a:pPr algn="ctr"/>
+              <a:t> </a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="1100">
               <a:solidFill>
@@ -32256,7 +32241,8 @@
                 <a:latin typeface="Calibri"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
-              <a:t>54,19%</a:t>
+              <a:pPr algn="ctr"/>
+              <a:t> </a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -32319,7 +32305,8 @@
                 <a:ea typeface="Segoe UI Black" panose="020B0A02040204020203" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
-              <a:t>Base Trabalhada [Z]</a:t>
+              <a:pPr algn="ctr"/>
+              <a:t> </a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="1100">
               <a:solidFill>
@@ -32627,7 +32614,7 @@
                   <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 </a:rPr>
                 <a:pPr algn="ctr"/>
-                <a:t>LEADS</a:t>
+                <a:t> </a:t>
               </a:fld>
               <a:endParaRPr lang="pt-BR" sz="700">
                 <a:solidFill>
@@ -32720,7 +32707,7 @@
                     <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                   </a:rPr>
                   <a:pPr algn="ctr"/>
-                  <a:t>CPC</a:t>
+                  <a:t> </a:t>
                 </a:fld>
                 <a:endParaRPr lang="pt-BR" sz="700">
                   <a:solidFill>
@@ -32785,7 +32772,7 @@
                     <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                   </a:rPr>
                   <a:pPr algn="ctr"/>
-                  <a:t>POTENCIAL</a:t>
+                  <a:t> </a:t>
                 </a:fld>
                 <a:endParaRPr lang="pt-BR" sz="700">
                   <a:solidFill>
@@ -32850,7 +32837,7 @@
                     <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                   </a:rPr>
                   <a:pPr algn="ctr"/>
-                  <a:t>TRABALHADOS</a:t>
+                  <a:t> </a:t>
                 </a:fld>
                 <a:endParaRPr lang="pt-BR" sz="700">
                   <a:solidFill>
@@ -32915,7 +32902,7 @@
                     <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                   </a:rPr>
                   <a:pPr algn="ctr"/>
-                  <a:t>VENDA</a:t>
+                  <a:t> </a:t>
                 </a:fld>
                 <a:endParaRPr lang="pt-BR" sz="700">
                   <a:solidFill>
@@ -33109,15 +33096,15 @@
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>207095</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>15362</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>207095</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>15362</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -33154,7 +33141,7 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
+        <xdr:clientData fPrintsWithSheet="0"/>
       </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
@@ -33532,7 +33519,7 @@
                 <a:cs typeface="Calibri"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>30,73%</a:t>
+              <a:t>28,93%</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="1600" b="1">
               <a:solidFill>
@@ -33839,7 +33826,8 @@
                 <a:latin typeface="Calibri"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
-              <a:t>19,67%</a:t>
+              <a:pPr algn="ctr"/>
+              <a:t>75,67%</a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -33905,6 +33893,7 @@
                 <a:ea typeface="Segoe UI Black" panose="020B0A02040204020203" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
+              <a:pPr algn="ctr"/>
               <a:t>Base Trabalhada [A]</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="1100">
@@ -34832,7 +34821,7 @@
                   <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 </a:rPr>
                 <a:pPr algn="ctr"/>
-                <a:t>Todos</a:t>
+                <a:t>Base D</a:t>
               </a:fld>
               <a:endParaRPr lang="pt-BR" sz="2000" b="1">
                 <a:solidFill>
@@ -34972,7 +34961,7 @@
                   <a:cs typeface="Calibri"/>
                 </a:rPr>
                 <a:pPr algn="ctr"/>
-                <a:t>60,41%</a:t>
+                <a:t>5,21%</a:t>
               </a:fld>
               <a:endParaRPr lang="pt-BR" sz="1100" b="1"/>
             </a:p>
@@ -34987,13 +34976,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>68775</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>745051</xdr:colOff>
+          <xdr:colOff>742950</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
@@ -35229,6 +35218,7 @@
                 <a:ea typeface="Roboto" pitchFamily="2" charset="0"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
+              <a:pPr algn="ctr"/>
               <a:t>TRABALHADO</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="1100">
@@ -35289,6 +35279,7 @@
                 <a:ea typeface="Roboto" pitchFamily="2" charset="0"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
+              <a:pPr algn="ctr"/>
               <a:t>ALO</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="1100">
@@ -35349,6 +35340,7 @@
                 <a:ea typeface="Roboto" pitchFamily="2" charset="0"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
+              <a:pPr algn="ctr"/>
               <a:t>CPC</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="1100">
@@ -35409,6 +35401,7 @@
                 <a:ea typeface="Roboto" pitchFamily="2" charset="0"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
+              <a:pPr algn="ctr"/>
               <a:t>VENDA</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="1100">
@@ -35639,7 +35632,7 @@
                 <a:cs typeface="Calibri"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>Todos</a:t>
+              <a:t>Base D</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="4000">
               <a:solidFill>
@@ -35962,7 +35955,7 @@
                   <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 </a:rPr>
                 <a:pPr algn="ctr"/>
-                <a:t>Todos</a:t>
+                <a:t>Base D</a:t>
               </a:fld>
               <a:endParaRPr lang="pt-BR" sz="2000" b="1">
                 <a:solidFill>
@@ -36105,7 +36098,8 @@
                   <a:ea typeface="Roboto" pitchFamily="2" charset="0"/>
                   <a:cs typeface="Calibri"/>
                 </a:rPr>
-                <a:t>43,33%</a:t>
+                <a:pPr algn="ctr"/>
+                <a:t>5,21%</a:t>
               </a:fld>
               <a:endParaRPr lang="pt-BR" sz="1100" b="1" i="1" u="none">
                 <a:solidFill>
@@ -36316,6 +36310,7 @@
                 <a:ea typeface="Roboto" pitchFamily="2" charset="0"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
+              <a:pPr algn="ctr"/>
               <a:t>TRABALHADO</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="1100">
@@ -36376,6 +36371,7 @@
                 <a:ea typeface="Roboto" pitchFamily="2" charset="0"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
+              <a:pPr algn="ctr"/>
               <a:t>ALO</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="1100">
@@ -36436,6 +36432,7 @@
                 <a:ea typeface="Roboto" pitchFamily="2" charset="0"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
+              <a:pPr algn="ctr"/>
               <a:t>CPC</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="1100">
@@ -36496,6 +36493,7 @@
                 <a:ea typeface="Roboto" pitchFamily="2" charset="0"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
+              <a:pPr algn="ctr"/>
               <a:t>VENDA</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="1100">
@@ -36724,7 +36722,8 @@
                 <a:ea typeface="Roboto" pitchFamily="2" charset="0"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
-              <a:t>Base A</a:t>
+              <a:pPr algn="ctr"/>
+              <a:t>Base D</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="8000" b="1">
               <a:solidFill>
@@ -37230,13 +37229,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>339439</xdr:colOff>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>184407</xdr:colOff>
+          <xdr:colOff>180975</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
@@ -37540,7 +37539,7 @@
                   <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 </a:rPr>
                 <a:pPr algn="ctr"/>
-                <a:t>Todos</a:t>
+                <a:t> </a:t>
               </a:fld>
               <a:endParaRPr lang="pt-BR" sz="2000" b="1">
                 <a:solidFill>
@@ -37622,7 +37621,7 @@
                   <a:cs typeface="Calibri"/>
                 </a:rPr>
                 <a:pPr algn="ctr"/>
-                <a:t>%  Trabalhada</a:t>
+                <a:t> </a:t>
               </a:fld>
               <a:endParaRPr lang="pt-BR" sz="1400"/>
             </a:p>
@@ -37686,7 +37685,8 @@
                   <a:ea typeface="Roboto" pitchFamily="2" charset="0"/>
                   <a:cs typeface="Calibri"/>
                 </a:rPr>
-                <a:t>60,41%</a:t>
+                <a:pPr algn="ctr"/>
+                <a:t>5,21%</a:t>
               </a:fld>
               <a:endParaRPr lang="en-US" sz="200" b="1" i="1" u="none" strike="noStrike">
                 <a:solidFill>
@@ -37838,7 +37838,7 @@
                 <a:cs typeface="Calibri"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>LEADS</a:t>
+              <a:t> </a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="1100">
               <a:solidFill>
@@ -37898,7 +37898,8 @@
                 <a:ea typeface="Roboto" pitchFamily="2" charset="0"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
-              <a:t>TRABALHADO</a:t>
+              <a:pPr algn="ctr"/>
+              <a:t> </a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="1100">
               <a:solidFill>
@@ -37958,7 +37959,8 @@
                 <a:ea typeface="Roboto" pitchFamily="2" charset="0"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
-              <a:t>ALO</a:t>
+              <a:pPr algn="ctr"/>
+              <a:t> </a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="1100">
               <a:solidFill>
@@ -38018,7 +38020,8 @@
                 <a:ea typeface="Roboto" pitchFamily="2" charset="0"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
-              <a:t>CPC</a:t>
+              <a:pPr algn="ctr"/>
+              <a:t> </a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="1100">
               <a:solidFill>
@@ -38078,7 +38081,8 @@
                 <a:ea typeface="Roboto" pitchFamily="2" charset="0"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
-              <a:t>VENDA</a:t>
+              <a:pPr algn="ctr"/>
+              <a:t> </a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="1100">
               <a:solidFill>
@@ -38309,7 +38313,8 @@
                 <a:ea typeface="Roboto" pitchFamily="2" charset="0"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
-              <a:t>Base A</a:t>
+              <a:pPr algn="ctr"/>
+              <a:t>Base D</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="8000" b="1">
               <a:solidFill>
@@ -39046,7 +39051,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:C18" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="3">
     <pivotField numFmtId="14" showAll="0"/>
@@ -39396,16 +39401,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
@@ -39511,7 +39516,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="7" spans="11:11">
-      <c r="K7" s="23"/>
+      <c r="K7" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -39570,13 +39575,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -46619,23 +46624,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="36" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -46694,148 +46699,148 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="26"/>
+    <col min="1" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="1"/>
-    <row r="2" s="14" customFormat="1"/>
-    <row r="3" s="14" customFormat="1"/>
-    <row r="4" s="15" customFormat="1"/>
+    <row r="1" s="13" customFormat="1"/>
+    <row r="2" s="13" customFormat="1"/>
+    <row r="3" s="13" customFormat="1"/>
+    <row r="4" s="14" customFormat="1"/>
     <row r="65" spans="1:32">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
-      <c r="Q65" s="16"/>
-      <c r="R65" s="16"/>
-      <c r="S65" s="16"/>
-      <c r="T65" s="16"/>
-      <c r="U65" s="16"/>
-      <c r="V65" s="16"/>
-      <c r="W65" s="16"/>
-      <c r="X65" s="16"/>
-      <c r="Y65" s="16"/>
-      <c r="Z65" s="16"/>
-      <c r="AA65" s="16"/>
-      <c r="AB65" s="16"/>
-      <c r="AC65" s="16"/>
-      <c r="AD65" s="16"/>
-      <c r="AE65" s="16"/>
-      <c r="AF65" s="16"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="15"/>
+      <c r="R65" s="15"/>
+      <c r="S65" s="15"/>
+      <c r="T65" s="15"/>
+      <c r="U65" s="15"/>
+      <c r="V65" s="15"/>
+      <c r="W65" s="15"/>
+      <c r="X65" s="15"/>
+      <c r="Y65" s="15"/>
+      <c r="Z65" s="15"/>
+      <c r="AA65" s="15"/>
+      <c r="AB65" s="15"/>
+      <c r="AC65" s="15"/>
+      <c r="AD65" s="15"/>
+      <c r="AE65" s="15"/>
+      <c r="AF65" s="15"/>
     </row>
     <row r="66" spans="1:32">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="16"/>
-      <c r="Q66" s="16"/>
-      <c r="R66" s="16"/>
-      <c r="S66" s="16"/>
-      <c r="T66" s="16"/>
-      <c r="U66" s="16"/>
-      <c r="V66" s="16"/>
-      <c r="W66" s="16"/>
-      <c r="X66" s="16"/>
-      <c r="Y66" s="16"/>
-      <c r="Z66" s="16"/>
-      <c r="AA66" s="16"/>
-      <c r="AB66" s="16"/>
-      <c r="AC66" s="16"/>
-      <c r="AD66" s="16"/>
-      <c r="AE66" s="16"/>
-      <c r="AF66" s="16"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="15"/>
+      <c r="S66" s="15"/>
+      <c r="T66" s="15"/>
+      <c r="U66" s="15"/>
+      <c r="V66" s="15"/>
+      <c r="W66" s="15"/>
+      <c r="X66" s="15"/>
+      <c r="Y66" s="15"/>
+      <c r="Z66" s="15"/>
+      <c r="AA66" s="15"/>
+      <c r="AB66" s="15"/>
+      <c r="AC66" s="15"/>
+      <c r="AD66" s="15"/>
+      <c r="AE66" s="15"/>
+      <c r="AF66" s="15"/>
     </row>
     <row r="67" spans="1:32">
-      <c r="A67" s="16"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
-      <c r="R67" s="16"/>
-      <c r="S67" s="16"/>
-      <c r="T67" s="16"/>
-      <c r="U67" s="16"/>
-      <c r="V67" s="16"/>
-      <c r="W67" s="16"/>
-      <c r="X67" s="16"/>
-      <c r="Y67" s="16"/>
-      <c r="Z67" s="16"/>
-      <c r="AA67" s="16"/>
-      <c r="AB67" s="16"/>
-      <c r="AC67" s="16"/>
-      <c r="AD67" s="16"/>
-      <c r="AE67" s="16"/>
-      <c r="AF67" s="16"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="15"/>
+      <c r="R67" s="15"/>
+      <c r="S67" s="15"/>
+      <c r="T67" s="15"/>
+      <c r="U67" s="15"/>
+      <c r="V67" s="15"/>
+      <c r="W67" s="15"/>
+      <c r="X67" s="15"/>
+      <c r="Y67" s="15"/>
+      <c r="Z67" s="15"/>
+      <c r="AA67" s="15"/>
+      <c r="AB67" s="15"/>
+      <c r="AC67" s="15"/>
+      <c r="AD67" s="15"/>
+      <c r="AE67" s="15"/>
+      <c r="AF67" s="15"/>
     </row>
     <row r="68" spans="1:32">
-      <c r="A68" s="16"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="16"/>
-      <c r="M68" s="16"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="16"/>
-      <c r="R68" s="16"/>
-      <c r="S68" s="16"/>
-      <c r="T68" s="16"/>
-      <c r="U68" s="16"/>
-      <c r="V68" s="16"/>
-      <c r="W68" s="16"/>
-      <c r="X68" s="16"/>
-      <c r="Y68" s="16"/>
-      <c r="Z68" s="16"/>
-      <c r="AA68" s="16"/>
-      <c r="AB68" s="16"/>
-      <c r="AC68" s="16"/>
-      <c r="AD68" s="16"/>
-      <c r="AE68" s="16"/>
-      <c r="AF68" s="16"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="15"/>
+      <c r="R68" s="15"/>
+      <c r="S68" s="15"/>
+      <c r="T68" s="15"/>
+      <c r="U68" s="15"/>
+      <c r="V68" s="15"/>
+      <c r="W68" s="15"/>
+      <c r="X68" s="15"/>
+      <c r="Y68" s="15"/>
+      <c r="Z68" s="15"/>
+      <c r="AA68" s="15"/>
+      <c r="AB68" s="15"/>
+      <c r="AC68" s="15"/>
+      <c r="AD68" s="15"/>
+      <c r="AE68" s="15"/>
+      <c r="AF68" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -46882,94 +46887,94 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="33"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="36"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="38"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="36"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="38"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="36"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="36"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="36"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="36"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -46995,34 +47000,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>36</v>
       </c>
     </row>
@@ -47030,326 +47035,326 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>1500</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <f ca="1">SUM(D7:D20)</f>
-        <v>461</v>
-      </c>
-      <c r="D4" s="19">
+        <v>434</v>
+      </c>
+      <c r="D4" s="18">
         <f ca="1">C4/B4</f>
-        <v>0.30733333333333335</v>
-      </c>
-      <c r="E4" s="22">
+        <v>0.28933333333333333</v>
+      </c>
+      <c r="E4" s="21">
         <v>0.02</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="23">
         <f ca="1">100%-(SUM(D4:E4))</f>
-        <v>0.67266666666666663</v>
-      </c>
-      <c r="G4" s="21">
+        <v>0.69066666666666665</v>
+      </c>
+      <c r="G4" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="27" t="str">
+      <c r="A7" s="25" t="str">
         <f>"Base Trabalhada [" &amp;B7&amp;"]"</f>
         <v>Base Trabalhada [A]</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="25">
         <v>300</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="25">
         <f ca="1">RANDBETWEEN(1,C7)</f>
-        <v>59</v>
-      </c>
-      <c r="E7" s="29">
+        <v>227</v>
+      </c>
+      <c r="E7" s="27">
         <f ca="1">D7/C7</f>
-        <v>0.19666666666666666</v>
-      </c>
-      <c r="F7" s="30">
+        <v>0.75666666666666671</v>
+      </c>
+      <c r="F7" s="28">
         <v>0.02</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="29">
         <f ca="1">100%-SUM(E7:F7)</f>
-        <v>0.78333333333333333</v>
-      </c>
-      <c r="H7" s="30">
+        <v>0.22333333333333327</v>
+      </c>
+      <c r="H7" s="28">
         <v>1</v>
       </c>
-      <c r="I7" s="27" t="str">
+      <c r="I7" s="25" t="str">
         <f ca="1">D7&amp; " / " &amp;C7</f>
-        <v>59 / 300</v>
+        <v>227 / 300</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="27" t="str">
+      <c r="A8" s="25" t="str">
         <f t="shared" ref="A8:A10" si="0">"Base Trabalhada [" &amp;B8&amp;"]"</f>
         <v>Base Trabalhada [MN]</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="25">
         <v>200</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="25">
         <f t="shared" ref="D8:D11" ca="1" si="1">RANDBETWEEN(1,C8)</f>
-        <v>89</v>
-      </c>
-      <c r="E8" s="29">
+        <v>85</v>
+      </c>
+      <c r="E8" s="27">
         <f t="shared" ref="E8:E11" ca="1" si="2">D8/C8</f>
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="F8" s="30">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="F8" s="28">
         <v>0.02</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="29">
         <f t="shared" ref="G8:G11" ca="1" si="3">100%-SUM(E8:F8)</f>
-        <v>0.53499999999999992</v>
-      </c>
-      <c r="H8" s="30">
+        <v>0.55499999999999994</v>
+      </c>
+      <c r="H8" s="28">
         <v>1</v>
       </c>
-      <c r="I8" s="27" t="str">
+      <c r="I8" s="25" t="str">
         <f t="shared" ref="I8:I11" ca="1" si="4">D8&amp; " / " &amp;C8</f>
-        <v>89 / 200</v>
+        <v>85 / 200</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="27" t="str">
+      <c r="A9" s="25" t="str">
         <f t="shared" si="0"/>
         <v>Base Trabalhada [C]</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="25">
         <v>78</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="E9" s="29">
+        <v>21</v>
+      </c>
+      <c r="E9" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85897435897435892</v>
-      </c>
-      <c r="F9" s="30">
+        <v>0.26923076923076922</v>
+      </c>
+      <c r="F9" s="28">
         <v>0.02</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12102564102564106</v>
-      </c>
-      <c r="H9" s="30">
+        <v>0.71076923076923082</v>
+      </c>
+      <c r="H9" s="28">
         <v>1</v>
       </c>
-      <c r="I9" s="27" t="str">
+      <c r="I9" s="25" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>67 / 78</v>
+        <v>21 / 78</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="27" t="str">
+      <c r="A10" s="25" t="str">
         <f t="shared" si="0"/>
         <v>Base Trabalhada [EF]</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="25">
         <v>99</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="E10" s="29">
+        <v>48</v>
+      </c>
+      <c r="E10" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F10" s="30">
+        <v>0.48484848484848486</v>
+      </c>
+      <c r="F10" s="28">
         <v>0.02</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4244444444444444</v>
-      </c>
-      <c r="H10" s="30">
+        <v>0.49515151515151512</v>
+      </c>
+      <c r="H10" s="28">
         <v>1</v>
       </c>
-      <c r="I10" s="27" t="str">
+      <c r="I10" s="25" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>55 / 99</v>
+        <v>48 / 99</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="27" t="str">
+      <c r="A11" s="25" t="str">
         <f>"Base Trabalhada [" &amp;B11&amp;"]"</f>
         <v>Base Trabalhada [Z]</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="25">
         <f>B4-SUM(C7:C10)</f>
         <v>823</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>191</v>
-      </c>
-      <c r="E11" s="29">
+        <v>53</v>
+      </c>
+      <c r="E11" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23207776427703525</v>
-      </c>
-      <c r="F11" s="30">
+        <v>6.4398541919805583E-2</v>
+      </c>
+      <c r="F11" s="28">
         <v>0.02</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74792223572296468</v>
-      </c>
-      <c r="H11" s="30">
+        <v>0.91560145808019444</v>
+      </c>
+      <c r="H11" s="28">
         <v>1</v>
       </c>
-      <c r="I11" s="27" t="str">
+      <c r="I11" s="25" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>191 / 823</v>
+        <v>53 / 823</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
@@ -47357,10 +47362,10 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="25" t="s">
         <v>31</v>
       </c>
       <c r="E25" t="e">
@@ -47369,259 +47374,259 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="32">
+      <c r="A26" s="30">
         <v>43466</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="25">
         <f ca="1">RANDBETWEEN(1,120)</f>
-        <v>58</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="32">
+      <c r="A27" s="30">
         <v>43467</v>
       </c>
-      <c r="B27" s="27">
-        <f t="shared" ref="B27:B56" ca="1" si="5">RANDBETWEEN(1,120)</f>
-        <v>116</v>
+      <c r="B27" s="25">
+        <f t="shared" ref="B27:B48" ca="1" si="5">RANDBETWEEN(1,120)</f>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="32">
+      <c r="A28" s="30">
         <v>43468</v>
       </c>
-      <c r="B28" s="27">
+      <c r="B28" s="25">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="32">
+      <c r="A29" s="30">
         <v>43469</v>
       </c>
-      <c r="B29" s="27">
+      <c r="B29" s="25">
         <f t="shared" ca="1" si="5"/>
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="32">
+      <c r="A30" s="30">
         <v>43470</v>
       </c>
-      <c r="B30" s="27">
+      <c r="B30" s="25">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="30">
+        <v>43471</v>
+      </c>
+      <c r="B31" s="25">
+        <f t="shared" ca="1" si="5"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="30">
+        <v>43472</v>
+      </c>
+      <c r="B32" s="25">
+        <f t="shared" ca="1" si="5"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="30">
+        <v>43473</v>
+      </c>
+      <c r="B33" s="25">
         <f t="shared" ca="1" si="5"/>
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="32">
-        <v>43471</v>
-      </c>
-      <c r="B31" s="27">
+    <row r="34" spans="1:2">
+      <c r="A34" s="30">
+        <v>43474</v>
+      </c>
+      <c r="B34" s="25">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="32">
-        <v>43472</v>
-      </c>
-      <c r="B32" s="27">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="30">
+        <v>43475</v>
+      </c>
+      <c r="B35" s="25">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="32">
-        <v>43473</v>
-      </c>
-      <c r="B33" s="27">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="30">
+        <v>43476</v>
+      </c>
+      <c r="B36" s="25">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="32">
-        <v>43474</v>
-      </c>
-      <c r="B34" s="27">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="30">
+        <v>43477</v>
+      </c>
+      <c r="B37" s="25">
         <f t="shared" ca="1" si="5"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="32">
-        <v>43475</v>
-      </c>
-      <c r="B35" s="27">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="30">
+        <v>43478</v>
+      </c>
+      <c r="B38" s="25">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="32">
-        <v>43476</v>
-      </c>
-      <c r="B36" s="27">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="30">
+        <v>43479</v>
+      </c>
+      <c r="B39" s="25">
         <f t="shared" ca="1" si="5"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="32">
-        <v>43477</v>
-      </c>
-      <c r="B37" s="27">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="30">
+        <v>43480</v>
+      </c>
+      <c r="B40" s="25">
+        <f t="shared" ca="1" si="5"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="30">
+        <v>43481</v>
+      </c>
+      <c r="B41" s="25">
+        <f t="shared" ca="1" si="5"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="30">
+        <v>43482</v>
+      </c>
+      <c r="B42" s="25">
+        <f t="shared" ca="1" si="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="30">
+        <v>43483</v>
+      </c>
+      <c r="B43" s="25">
+        <f t="shared" ca="1" si="5"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="30">
+        <v>43484</v>
+      </c>
+      <c r="B44" s="25">
         <f t="shared" ca="1" si="5"/>
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="32">
-        <v>43478</v>
-      </c>
-      <c r="B38" s="27">
+    <row r="45" spans="1:2">
+      <c r="A45" s="30">
+        <v>43485</v>
+      </c>
+      <c r="B45" s="25">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="32">
-        <v>43479</v>
-      </c>
-      <c r="B39" s="27">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="30">
+        <v>43486</v>
+      </c>
+      <c r="B46" s="25">
         <f t="shared" ca="1" si="5"/>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="32">
-        <v>43480</v>
-      </c>
-      <c r="B40" s="27">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="30">
+        <v>43487</v>
+      </c>
+      <c r="B47" s="25">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="32">
-        <v>43481</v>
-      </c>
-      <c r="B41" s="27">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="30">
+        <v>43488</v>
+      </c>
+      <c r="B48" s="25">
         <f t="shared" ca="1" si="5"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="32">
-        <v>43482</v>
-      </c>
-      <c r="B42" s="27">
-        <f t="shared" ca="1" si="5"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="32">
-        <v>43483</v>
-      </c>
-      <c r="B43" s="27">
-        <f t="shared" ca="1" si="5"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="32">
-        <v>43484</v>
-      </c>
-      <c r="B44" s="27">
-        <f t="shared" ca="1" si="5"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="32">
-        <v>43485</v>
-      </c>
-      <c r="B45" s="27">
-        <f t="shared" ca="1" si="5"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="32">
-        <v>43486</v>
-      </c>
-      <c r="B46" s="27">
-        <f t="shared" ca="1" si="5"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="32">
-        <v>43487</v>
-      </c>
-      <c r="B47" s="27">
-        <f t="shared" ca="1" si="5"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="32">
-        <v>43488</v>
-      </c>
-      <c r="B48" s="27">
-        <f t="shared" ca="1" si="5"/>
-        <v>107</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="32">
+      <c r="A49" s="30">
         <v>43489</v>
       </c>
-      <c r="B49" s="27"/>
+      <c r="B49" s="25"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="32">
+      <c r="A50" s="30">
         <v>43490</v>
       </c>
-      <c r="B50" s="27"/>
+      <c r="B50" s="25"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="32">
+      <c r="A51" s="30">
         <v>43491</v>
       </c>
-      <c r="B51" s="27"/>
+      <c r="B51" s="25"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="32">
+      <c r="A52" s="30">
         <v>43492</v>
       </c>
-      <c r="B52" s="27"/>
+      <c r="B52" s="25"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="32">
+      <c r="A53" s="30">
         <v>43493</v>
       </c>
-      <c r="B53" s="27"/>
+      <c r="B53" s="25"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="32">
+      <c r="A54" s="30">
         <v>43494</v>
       </c>
-      <c r="B54" s="27"/>
+      <c r="B54" s="25"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="32">
+      <c r="A55" s="30">
         <v>43495</v>
       </c>
-      <c r="B55" s="27"/>
+      <c r="B55" s="25"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="32">
+      <c r="A56" s="30">
         <v>43496</v>
       </c>
-      <c r="B56" s="27"/>
+      <c r="B56" s="25"/>
     </row>
     <row r="59" spans="1:4">
       <c r="B59" t="s">
@@ -47629,22 +47634,22 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="43" t="s">
+      <c r="A60" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C60" s="44" t="s">
+      <c r="C60" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="D60" s="45"/>
+      <c r="D60" s="56"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="42" t="s">
+      <c r="A61" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B61" s="42">
+      <c r="B61" s="40">
         <v>1200</v>
       </c>
       <c r="C61">
@@ -47657,10 +47662,10 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="42" t="s">
+      <c r="A62" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B62" s="42">
+      <c r="B62" s="40">
         <v>890</v>
       </c>
       <c r="C62">
@@ -47673,10 +47678,10 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="42" t="s">
+      <c r="A63" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="42">
+      <c r="B63" s="40">
         <v>300</v>
       </c>
       <c r="C63">
@@ -47689,10 +47694,10 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="42" t="s">
+      <c r="A64" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B64" s="42">
+      <c r="B64" s="40">
         <v>230</v>
       </c>
       <c r="C64">
@@ -47705,10 +47710,10 @@
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="42" t="s">
+      <c r="A65" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B65" s="42">
+      <c r="B65" s="40">
         <v>100</v>
       </c>
       <c r="C65">
@@ -47734,81 +47739,81 @@
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="43" t="s">
+      <c r="A70" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B70" s="43" t="s">
+      <c r="B70" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C70" s="46" t="s">
+      <c r="C70" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D70" s="47"/>
+      <c r="D70" s="43"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="42" t="s">
+      <c r="A71" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B71" s="42">
+      <c r="B71" s="40">
         <v>1200</v>
       </c>
-      <c r="C71" s="48" t="str">
+      <c r="C71" s="52" t="str">
         <f>REPT("|",B71/$C$77)</f>
         <v>||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||</v>
       </c>
-      <c r="D71" s="49"/>
+      <c r="D71" s="53"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="42" t="s">
+      <c r="A72" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B72" s="42">
+      <c r="B72" s="40">
         <v>890</v>
       </c>
-      <c r="C72" s="48" t="str">
+      <c r="C72" s="52" t="str">
         <f t="shared" ref="C72:C75" si="8">REPT("|",B72/$C$77)</f>
         <v>||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||</v>
       </c>
-      <c r="D72" s="49"/>
+      <c r="D72" s="53"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="42" t="s">
+      <c r="A73" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B73" s="42">
+      <c r="B73" s="40">
         <v>300</v>
       </c>
-      <c r="C73" s="48" t="str">
+      <c r="C73" s="52" t="str">
         <f t="shared" si="8"/>
         <v>||||||||||||||||||||||||||||||||||||||||||||||||||||||||||||</v>
       </c>
-      <c r="D73" s="49"/>
+      <c r="D73" s="53"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="42" t="s">
+      <c r="A74" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B74" s="42">
+      <c r="B74" s="40">
         <v>230</v>
       </c>
-      <c r="C74" s="48" t="str">
+      <c r="C74" s="52" t="str">
         <f t="shared" si="8"/>
         <v>||||||||||||||||||||||||||||||||||||||||||||||</v>
       </c>
-      <c r="D74" s="49"/>
+      <c r="D74" s="53"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="42" t="s">
+      <c r="A75" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B75" s="42">
+      <c r="B75" s="40">
         <v>100</v>
       </c>
-      <c r="C75" s="48" t="str">
+      <c r="C75" s="52" t="str">
         <f t="shared" si="8"/>
         <v>||||||||||||||||||||</v>
       </c>
-      <c r="D75" s="49"/>
+      <c r="D75" s="53"/>
     </row>
     <row r="77" spans="1:4">
       <c r="B77" t="s">
@@ -47819,121 +47824,121 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="43" t="s">
+      <c r="A81" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B81" s="17" t="s">
+      <c r="B81" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C81" s="43" t="s">
+      <c r="C81" s="41" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="42" t="s">
+      <c r="A82" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="27">
+      <c r="B82" s="25">
         <f>LARGE($C$82:$C$86,1)-C82/2</f>
         <v>2500</v>
       </c>
-      <c r="C82" s="42">
+      <c r="C82" s="40">
         <v>5000</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="42" t="s">
+      <c r="A83" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="27">
+      <c r="B83" s="25">
         <f>LARGE($C$82:$C$86,1)-C83/2</f>
         <v>3750</v>
       </c>
-      <c r="C83" s="42">
+      <c r="C83" s="40">
         <v>2500</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="42" t="s">
+      <c r="A84" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B84" s="27">
+      <c r="B84" s="25">
         <f t="shared" ref="B84:B86" si="9">LARGE($C$82:$C$86,1)-C84/2</f>
         <v>4500</v>
       </c>
-      <c r="C84" s="42">
+      <c r="C84" s="40">
         <v>1000</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="42" t="s">
+      <c r="A85" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B85" s="27">
+      <c r="B85" s="25">
         <f t="shared" si="9"/>
         <v>4600</v>
       </c>
-      <c r="C85" s="42">
+      <c r="C85" s="40">
         <v>800</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="42" t="s">
+      <c r="A86" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B86" s="27">
+      <c r="B86" s="25">
         <f t="shared" si="9"/>
         <v>4950</v>
       </c>
-      <c r="C86" s="42">
+      <c r="C86" s="40">
         <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="43" t="s">
+      <c r="A107" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B107" s="43" t="s">
+      <c r="B107" s="41" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="42" t="s">
+      <c r="A108" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B108" s="42">
+      <c r="B108" s="40">
         <v>5000</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="42" t="s">
+      <c r="A109" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B109" s="42">
+      <c r="B109" s="40">
         <v>2500</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="42" t="s">
+      <c r="A110" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B110" s="42">
+      <c r="B110" s="40">
         <v>1000</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="42" t="s">
+      <c r="A111" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B111" s="42">
+      <c r="B111" s="40">
         <v>800</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="42" t="s">
+      <c r="A112" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B112" s="42">
+      <c r="B112" s="40">
         <v>100</v>
       </c>
     </row>
@@ -48031,1006 +48036,1006 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="27">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25">
         <f>SUM(D3:D10)</f>
         <v>3794</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="25">
         <f ca="1">SUM(E3:E10)</f>
-        <v>2292</v>
-      </c>
-      <c r="F2" s="27">
+        <v>2253</v>
+      </c>
+      <c r="F2" s="25">
         <f ca="1">RANDBETWEEN(0,E2)</f>
-        <v>570</v>
-      </c>
-      <c r="G2" s="27">
+        <v>122</v>
+      </c>
+      <c r="G2" s="25">
         <f ca="1">RANDBETWEEN(0,F2)</f>
-        <v>202</v>
-      </c>
-      <c r="H2" s="27">
+        <v>119</v>
+      </c>
+      <c r="H2" s="25">
         <f ca="1">RANDBETWEEN(0,G2)</f>
-        <v>196</v>
-      </c>
-      <c r="I2" s="29">
-        <f ca="1">E2/D2</f>
-        <v>0.60411175540326834</v>
-      </c>
-      <c r="J2" s="30">
+        <v>90</v>
+      </c>
+      <c r="I2" s="27">
+        <f t="shared" ref="I2:I10" ca="1" si="0">E2/D2</f>
+        <v>0.59383236689509755</v>
+      </c>
+      <c r="J2" s="28">
         <v>0.01</v>
       </c>
-      <c r="K2" s="30">
+      <c r="K2" s="28">
         <f ca="1">100%-SUM(I2:J2)</f>
-        <v>0.38588824459673166</v>
-      </c>
-      <c r="L2" s="50">
+        <v>0.39616763310490244</v>
+      </c>
+      <c r="L2" s="44">
         <f>100%</f>
         <v>1</v>
       </c>
-      <c r="M2" s="27" t="str">
-        <f ca="1">E2 &amp; " / " &amp;D2</f>
-        <v>2292 / 3794</v>
+      <c r="M2" s="25" t="str">
+        <f t="shared" ref="M2:M10" ca="1" si="1">E2 &amp; " / " &amp;D2</f>
+        <v>2253 / 3794</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="27">
-        <f t="shared" ref="A3" si="0">A2+1</f>
+      <c r="A3" s="25">
+        <f t="shared" ref="A3" si="2">A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="str">
+      <c r="B3" s="25" t="str">
         <f>"Base " &amp;C3</f>
         <v>Base A</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="25">
         <v>150</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="25">
         <f ca="1">RANDBETWEEN(0,D3)</f>
-        <v>103</v>
-      </c>
-      <c r="F3" s="27">
-        <f t="shared" ref="F3:H20" ca="1" si="1">RANDBETWEEN(0,E3)</f>
-        <v>102</v>
-      </c>
-      <c r="G3" s="27">
-        <f t="shared" ca="1" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="H3" s="27">
-        <f t="shared" ca="1" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="I3" s="29">
-        <f ca="1">E3/D3</f>
-        <v>0.68666666666666665</v>
-      </c>
-      <c r="J3" s="30">
+        <v>67</v>
+      </c>
+      <c r="F3" s="25">
+        <f t="shared" ref="F3:H20" ca="1" si="3">RANDBETWEEN(0,E3)</f>
+        <v>57</v>
+      </c>
+      <c r="G3" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="H3" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="I3" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.44666666666666666</v>
+      </c>
+      <c r="J3" s="28">
         <v>0.01</v>
       </c>
-      <c r="K3" s="30">
-        <f t="shared" ref="K3:K10" ca="1" si="2">100%-SUM(I3:J3)</f>
-        <v>0.30333333333333334</v>
-      </c>
-      <c r="L3" s="50">
+      <c r="K3" s="28">
+        <f t="shared" ref="K3:K10" ca="1" si="4">100%-SUM(I3:J3)</f>
+        <v>0.54333333333333333</v>
+      </c>
+      <c r="L3" s="44">
         <f>100%</f>
         <v>1</v>
       </c>
-      <c r="M3" s="27" t="str">
-        <f ca="1">E3 &amp; " / " &amp;D3</f>
-        <v>103 / 150</v>
+      <c r="M3" s="25" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>67 / 150</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="27">
+      <c r="A4" s="25">
         <f>A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="str">
-        <f t="shared" ref="B4:B10" si="3">"Base " &amp;C4</f>
+      <c r="B4" s="25" t="str">
+        <f t="shared" ref="B4:B10" si="5">"Base " &amp;C4</f>
         <v>Base B</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="25">
         <v>300</v>
       </c>
-      <c r="E4" s="27">
-        <f t="shared" ref="E4:E10" ca="1" si="4">RANDBETWEEN(0,D4)</f>
-        <v>179</v>
-      </c>
-      <c r="F4" s="27">
-        <f t="shared" ca="1" si="1"/>
-        <v>122</v>
-      </c>
-      <c r="G4" s="27">
-        <f t="shared" ca="1" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="H4" s="27">
-        <f t="shared" ca="1" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="I4" s="29">
-        <f ca="1">E4/D4</f>
-        <v>0.59666666666666668</v>
-      </c>
-      <c r="J4" s="30">
+      <c r="E4" s="25">
+        <f t="shared" ref="E4:E10" ca="1" si="6">RANDBETWEEN(0,D4)</f>
+        <v>129</v>
+      </c>
+      <c r="F4" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="G4" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="H4" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.43</v>
+      </c>
+      <c r="J4" s="28">
         <v>0.01</v>
       </c>
-      <c r="K4" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.39333333333333331</v>
-      </c>
-      <c r="L4" s="50">
+      <c r="K4" s="28">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L4" s="44">
         <f>100%</f>
         <v>1</v>
       </c>
-      <c r="M4" s="27" t="str">
-        <f ca="1">E4 &amp; " / " &amp;D4</f>
-        <v>179 / 300</v>
+      <c r="M4" s="25" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>129 / 300</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="27">
-        <f t="shared" ref="A5:A10" si="5">A4+1</f>
+      <c r="A5" s="25">
+        <f t="shared" ref="A5:A10" si="7">A4+1</f>
         <v>4</v>
       </c>
-      <c r="B5" s="27" t="str">
-        <f t="shared" si="3"/>
+      <c r="B5" s="25" t="str">
+        <f t="shared" si="5"/>
         <v>Base C</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="25">
         <v>229</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="25">
+        <f t="shared" ca="1" si="6"/>
+        <v>204</v>
+      </c>
+      <c r="F5" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="G5" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="H5" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="I5" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.89082969432314407</v>
+      </c>
+      <c r="J5" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="K5" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>157</v>
-      </c>
-      <c r="F5" s="27">
-        <f t="shared" ca="1" si="1"/>
-        <v>140</v>
-      </c>
-      <c r="G5" s="27">
-        <f t="shared" ca="1" si="1"/>
-        <v>111</v>
-      </c>
-      <c r="H5" s="27">
-        <f t="shared" ca="1" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="I5" s="29">
-        <f ca="1">E5/D5</f>
-        <v>0.68558951965065507</v>
-      </c>
-      <c r="J5" s="30">
-        <v>0.01</v>
-      </c>
-      <c r="K5" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.30441048034934493</v>
-      </c>
-      <c r="L5" s="50">
+        <v>9.9170305676855919E-2</v>
+      </c>
+      <c r="L5" s="44">
         <f>100%</f>
         <v>1</v>
       </c>
-      <c r="M5" s="27" t="str">
-        <f ca="1">E5 &amp; " / " &amp;D5</f>
-        <v>157 / 229</v>
+      <c r="M5" s="25" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>204 / 229</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="27">
+      <c r="A6" s="25">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="25" t="str">
         <f t="shared" si="5"/>
+        <v>Base D</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="25">
+        <v>480</v>
+      </c>
+      <c r="E6" s="25">
+        <f t="shared" ca="1" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="F6" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="G6" s="25">
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v>Base D</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="27">
-        <v>480</v>
-      </c>
-      <c r="E6" s="27">
+      <c r="H6" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I6" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="J6" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="K6" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>433</v>
-      </c>
-      <c r="F6" s="27">
-        <f t="shared" ca="1" si="1"/>
-        <v>412</v>
-      </c>
-      <c r="G6" s="27">
-        <f t="shared" ca="1" si="1"/>
-        <v>217</v>
-      </c>
-      <c r="H6" s="27">
-        <f t="shared" ca="1" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="I6" s="29">
-        <f ca="1">E6/D6</f>
-        <v>0.90208333333333335</v>
-      </c>
-      <c r="J6" s="30">
-        <v>0.01</v>
-      </c>
-      <c r="K6" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.7916666666666643E-2</v>
-      </c>
-      <c r="L6" s="50">
+        <v>0.93791666666666662</v>
+      </c>
+      <c r="L6" s="44">
         <f>100%</f>
         <v>1</v>
       </c>
-      <c r="M6" s="27" t="str">
-        <f ca="1">E6 &amp; " / " &amp;D6</f>
-        <v>433 / 480</v>
+      <c r="M6" s="25" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>25 / 480</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="27">
+      <c r="A7" s="25">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="27" t="str">
-        <f t="shared" si="3"/>
         <v>Base E</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="25">
         <v>620</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="25">
+        <f t="shared" ca="1" si="6"/>
+        <v>366</v>
+      </c>
+      <c r="F7" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="G7" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="H7" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I7" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5903225806451613</v>
+      </c>
+      <c r="J7" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="K7" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>266</v>
-      </c>
-      <c r="F7" s="27">
-        <f t="shared" ca="1" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="G7" s="27">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="H7" s="27">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="I7" s="29">
-        <f ca="1">E7/D7</f>
-        <v>0.42903225806451611</v>
-      </c>
-      <c r="J7" s="30">
-        <v>0.01</v>
-      </c>
-      <c r="K7" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.56096774193548393</v>
-      </c>
-      <c r="L7" s="50">
+        <v>0.39967741935483869</v>
+      </c>
+      <c r="L7" s="44">
         <f>100%</f>
         <v>1</v>
       </c>
-      <c r="M7" s="27" t="str">
-        <f ca="1">E7 &amp; " / " &amp;D7</f>
-        <v>266 / 620</v>
+      <c r="M7" s="25" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>366 / 620</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="27">
+      <c r="A8" s="25">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="27" t="str">
-        <f t="shared" si="3"/>
         <v>Base F</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="25">
         <v>312</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="25">
+        <f t="shared" ca="1" si="6"/>
+        <v>158</v>
+      </c>
+      <c r="F8" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.50641025641025639</v>
+      </c>
+      <c r="J8" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="K8" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
-      </c>
-      <c r="F8" s="27">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="G8" s="27">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H8" s="27">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I8" s="29">
-        <f ca="1">E8/D8</f>
-        <v>0.20512820512820512</v>
-      </c>
-      <c r="J8" s="30">
-        <v>0.01</v>
-      </c>
-      <c r="K8" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.78487179487179493</v>
-      </c>
-      <c r="L8" s="50">
+        <v>0.4835897435897436</v>
+      </c>
+      <c r="L8" s="44">
         <f>100%</f>
         <v>1</v>
       </c>
-      <c r="M8" s="27" t="str">
-        <f ca="1">E8 &amp; " / " &amp;D8</f>
-        <v>64 / 312</v>
+      <c r="M8" s="25" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>158 / 312</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="27">
+      <c r="A9" s="25">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="27" t="str">
-        <f t="shared" si="3"/>
         <v>Base G</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="25">
         <v>953</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="25">
+        <f t="shared" ca="1" si="6"/>
+        <v>788</v>
+      </c>
+      <c r="F9" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>777</v>
+      </c>
+      <c r="G9" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>147</v>
+      </c>
+      <c r="H9" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="I9" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.82686253934942289</v>
+      </c>
+      <c r="J9" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="K9" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>808</v>
-      </c>
-      <c r="F9" s="27">
-        <f t="shared" ca="1" si="1"/>
-        <v>320</v>
-      </c>
-      <c r="G9" s="27">
-        <f t="shared" ca="1" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="H9" s="27">
-        <f t="shared" ca="1" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="I9" s="29">
-        <f ca="1">E9/D9</f>
-        <v>0.8478488982161595</v>
-      </c>
-      <c r="J9" s="30">
-        <v>0.01</v>
-      </c>
-      <c r="K9" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.14215110178384049</v>
-      </c>
-      <c r="L9" s="50">
+        <v>0.1631374606505771</v>
+      </c>
+      <c r="L9" s="44">
         <f>100%</f>
         <v>1</v>
       </c>
-      <c r="M9" s="27" t="str">
-        <f ca="1">E9 &amp; " / " &amp;D9</f>
-        <v>808 / 953</v>
+      <c r="M9" s="25" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>788 / 953</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="27">
+      <c r="A10" s="25">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="27" t="str">
-        <f t="shared" si="3"/>
         <v>Base H</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="25">
         <v>750</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="25">
+        <f t="shared" ca="1" si="6"/>
+        <v>516</v>
+      </c>
+      <c r="F10" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="G10" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>146</v>
+      </c>
+      <c r="H10" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="I10" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="J10" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="K10" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>282</v>
-      </c>
-      <c r="F10" s="27">
-        <f t="shared" ca="1" si="1"/>
-        <v>194</v>
-      </c>
-      <c r="G10" s="27">
-        <f t="shared" ca="1" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="H10" s="27">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I10" s="29">
-        <f ca="1">E10/D10</f>
-        <v>0.376</v>
-      </c>
-      <c r="J10" s="30">
-        <v>0.01</v>
-      </c>
-      <c r="K10" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.61399999999999999</v>
-      </c>
-      <c r="L10" s="50">
+        <v>0.30200000000000005</v>
+      </c>
+      <c r="L10" s="44">
         <f>100%</f>
         <v>1</v>
       </c>
-      <c r="M10" s="27" t="str">
-        <f ca="1">E10 &amp; " / " &amp;D10</f>
-        <v>282 / 750</v>
+      <c r="M10" s="25" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>516 / 750</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27">
-        <f t="shared" ca="1" si="1"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="G11" s="27">
-        <f t="shared" ca="1" si="1"/>
+      <c r="G11" s="25">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="H11" s="27">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H11" s="25">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27">
-        <f t="shared" ca="1" si="1"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="G12" s="27">
-        <f t="shared" ca="1" si="1"/>
+      <c r="G12" s="25">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="H12" s="27">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H12" s="25">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27">
-        <f t="shared" ca="1" si="1"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="G13" s="27">
-        <f t="shared" ca="1" si="1"/>
+      <c r="G13" s="25">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="H13" s="27">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H13" s="25">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27">
-        <f t="shared" ca="1" si="1"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="G14" s="27">
-        <f t="shared" ca="1" si="1"/>
+      <c r="G14" s="25">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="H14" s="27">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H14" s="25">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27">
-        <f t="shared" ca="1" si="1"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="G15" s="27">
-        <f t="shared" ca="1" si="1"/>
+      <c r="G15" s="25">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="H15" s="27">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H15" s="25">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27">
-        <f t="shared" ca="1" si="1"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="G16" s="27">
-        <f t="shared" ca="1" si="1"/>
+      <c r="G16" s="25">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="H16" s="27">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H16" s="25">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27">
-        <f t="shared" ca="1" si="1"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="G17" s="27">
-        <f t="shared" ca="1" si="1"/>
+      <c r="G17" s="25">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="H17" s="27">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H17" s="25">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27">
-        <f t="shared" ca="1" si="1"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="G18" s="27">
-        <f t="shared" ca="1" si="1"/>
+      <c r="G18" s="25">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="H18" s="27">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H18" s="25">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27">
-        <f t="shared" ca="1" si="1"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="G19" s="27">
-        <f t="shared" ca="1" si="1"/>
+      <c r="G19" s="25">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="H19" s="27">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H19" s="25">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27">
-        <f t="shared" ca="1" si="1"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="G20" s="27">
-        <f t="shared" ca="1" si="1"/>
+      <c r="G20" s="25">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="H20" s="27">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H20" s="25">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="52" t="s">
+      <c r="E24" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="52" t="s">
+      <c r="F24" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="G24" s="52" t="s">
+      <c r="G24" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="52" t="s">
+      <c r="H24" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="I24" s="52" t="s">
+      <c r="I24" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="J24" s="52" t="s">
+      <c r="J24" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="52" t="s">
+      <c r="K24" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="L24" s="52" t="s">
+      <c r="L24" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="M24" s="52" t="s">
+      <c r="M24" s="46" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="27">
-        <v>1</v>
-      </c>
-      <c r="B25" s="27" t="str">
+      <c r="A25" s="25">
+        <v>5</v>
+      </c>
+      <c r="B25" s="25" t="str">
         <f>VLOOKUP(A25,A1:B20,2,0)</f>
-        <v>Todos</v>
-      </c>
-      <c r="C25" s="27">
+        <v>Base D</v>
+      </c>
+      <c r="C25" s="25" t="str">
         <f>VLOOKUP(A25,A1:C20,3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="27">
+        <v>D</v>
+      </c>
+      <c r="D25" s="25">
         <f>VLOOKUP(A25,A1:D20,4,0)</f>
-        <v>3794</v>
-      </c>
-      <c r="E25" s="27">
+        <v>480</v>
+      </c>
+      <c r="E25" s="25">
         <f ca="1">VLOOKUP(A25,A1:E20,5,0)</f>
-        <v>2292</v>
-      </c>
-      <c r="F25" s="27">
+        <v>25</v>
+      </c>
+      <c r="F25" s="25">
         <f ca="1">VLOOKUP(A25,A1:F20,6,0)</f>
-        <v>570</v>
-      </c>
-      <c r="G25" s="27">
+        <v>19</v>
+      </c>
+      <c r="G25" s="25">
         <f ca="1">VLOOKUP(A25,A1:H20,7,0)</f>
-        <v>202</v>
-      </c>
-      <c r="H25" s="53">
+        <v>5</v>
+      </c>
+      <c r="H25" s="47">
         <f ca="1">VLOOKUP($A25,$A1:$M20,8,0)</f>
-        <v>196</v>
-      </c>
-      <c r="I25" s="29">
+        <v>3</v>
+      </c>
+      <c r="I25" s="27">
         <f ca="1">VLOOKUP($A25,$A1:$M20,9,0)</f>
-        <v>0.60411175540326834</v>
-      </c>
-      <c r="J25" s="50">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="J25" s="44">
         <f>VLOOKUP($A25,$A1:$M20,10,0)</f>
         <v>0.01</v>
       </c>
-      <c r="K25" s="50">
+      <c r="K25" s="44">
         <f ca="1">VLOOKUP($A25,$A1:$M20,11,0)</f>
-        <v>0.38588824459673166</v>
-      </c>
-      <c r="L25" s="50">
+        <v>0.93791666666666662</v>
+      </c>
+      <c r="L25" s="44">
         <f>VLOOKUP($A25,$A1:$M20,12,0)</f>
         <v>1</v>
       </c>
-      <c r="M25" s="27" t="str">
+      <c r="M25" s="25" t="str">
         <f ca="1">VLOOKUP($A25,$A1:$M20,13,0)</f>
-        <v>2292 / 3794</v>
+        <v>25 / 480</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="E27" s="56" t="s">
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="E27" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="56"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="52" t="s">
+      <c r="E29" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="52" t="s">
+      <c r="F29" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="52" t="s">
+      <c r="G29" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="H29" s="52" t="s">
+      <c r="H29" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="52" t="s">
+      <c r="I29" s="46" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="27">
+      <c r="B30" s="25">
         <f ca="1">LARGE($C$30:$C$34,1)-C30/2</f>
-        <v>1897</v>
-      </c>
-      <c r="C30" s="27">
+        <v>240</v>
+      </c>
+      <c r="C30" s="25">
         <f>D25</f>
-        <v>3794</v>
-      </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="58">
+        <v>480</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="49">
         <f ca="1">I25</f>
-        <v>0.60411175540326834</v>
-      </c>
-      <c r="F30" s="29">
-        <f t="shared" ref="F30:I30" si="6">J25</f>
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="F30" s="27">
+        <f t="shared" ref="F30:I30" si="8">J25</f>
         <v>0.01</v>
       </c>
-      <c r="G30" s="29">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.38588824459673166</v>
-      </c>
-      <c r="H30" s="29">
-        <f t="shared" si="6"/>
+      <c r="G30" s="27">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.93791666666666662</v>
+      </c>
+      <c r="H30" s="27">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I30" s="29" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>2292 / 3794</v>
+      <c r="I30" s="27" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>25 / 480</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="27">
+      <c r="B31" s="25">
         <f ca="1">LARGE($C$30:$C$34,1)-C31/2</f>
-        <v>2648</v>
-      </c>
-      <c r="C31" s="27">
+        <v>467.5</v>
+      </c>
+      <c r="C31" s="25">
         <f ca="1">E25</f>
-        <v>2292</v>
-      </c>
-      <c r="D31" s="59">
+        <v>25</v>
+      </c>
+      <c r="D31" s="50">
         <f ca="1">C31/$C$30</f>
-        <v>0.60411175540326834</v>
+        <v>5.2083333333333336E-2</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="27">
+      <c r="B32" s="25">
         <f ca="1">LARGE($C$30:$C$34,1)-C32/2</f>
-        <v>3509</v>
-      </c>
-      <c r="C32" s="27">
+        <v>470.5</v>
+      </c>
+      <c r="C32" s="25">
         <f ca="1">F25</f>
-        <v>570</v>
-      </c>
-      <c r="D32" s="59">
-        <f t="shared" ref="D32:D34" ca="1" si="7">C32/$C$30</f>
-        <v>0.15023721665788087</v>
+        <v>19</v>
+      </c>
+      <c r="D32" s="50">
+        <f t="shared" ref="D32:D34" ca="1" si="9">C32/$C$30</f>
+        <v>3.9583333333333331E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="27">
+      <c r="B33" s="25">
         <f ca="1">LARGE($C$30:$C$34,1)-C33/2</f>
-        <v>3693</v>
-      </c>
-      <c r="C33" s="27">
+        <v>477.5</v>
+      </c>
+      <c r="C33" s="25">
         <f ca="1">G25</f>
-        <v>202</v>
-      </c>
-      <c r="D33" s="59">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.3241960991038478E-2</v>
+        <v>5</v>
+      </c>
+      <c r="D33" s="50">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.0416666666666666E-2</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="27">
+      <c r="B34" s="25">
         <f ca="1">LARGE($C$30:$C$34,1)-C34/2</f>
-        <v>3696</v>
-      </c>
-      <c r="C34" s="53">
+        <v>478.5</v>
+      </c>
+      <c r="C34" s="47">
         <f ca="1">H25</f>
-        <v>196</v>
-      </c>
-      <c r="D34" s="59">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.1660516605166053E-2</v>
+        <v>3</v>
+      </c>
+      <c r="D34" s="50">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.2500000000000003E-3</v>
       </c>
     </row>
   </sheetData>
